--- a/data/trans_dic/P1427-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1427-Dificultad-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.006515360110673841</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.03264439849723331</v>
+        <v>0.03264439849723332</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.02989773878551277</v>
@@ -655,7 +655,7 @@
         <v>0.02838809944212446</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.05267827093702038</v>
+        <v>0.0526782709370204</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.02775369173810192</v>
@@ -664,7 +664,7 @@
         <v>0.0180543654004751</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.04378828822970983</v>
+        <v>0.04378828822970984</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01631569574414869</v>
+        <v>0.01649526852346575</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003108202207158515</v>
+        <v>0.002937058245403681</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02049296481635186</v>
+        <v>0.02059218592497512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02060571159025005</v>
+        <v>0.02087263090470659</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01875686989911045</v>
+        <v>0.01939429273205926</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04090757640539871</v>
+        <v>0.04099625910031419</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02119340731813566</v>
+        <v>0.02135284816795742</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01311860317972675</v>
+        <v>0.01318990196862597</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03459956187814182</v>
+        <v>0.03488918844570858</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03785964368868593</v>
+        <v>0.03865102917910139</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01238849649937242</v>
+        <v>0.01306074406492255</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04894117539584825</v>
+        <v>0.04930364372852079</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0419587365531818</v>
+        <v>0.04074572201866852</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03874771242652844</v>
+        <v>0.03996476432759691</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06863575112100283</v>
+        <v>0.06896216941002513</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03616591369628423</v>
+        <v>0.03718621886985743</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02455805988181478</v>
+        <v>0.02458659876008952</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05348499219006118</v>
+        <v>0.05439157030125458</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.01834405339613492</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.04665085590813633</v>
+        <v>0.04665085590813631</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.02076076735809208</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007367527360176152</v>
+        <v>0.007414706614756836</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007028861314608433</v>
+        <v>0.008061564414328407</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0244224142332002</v>
+        <v>0.02456081622547843</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01804744213357445</v>
+        <v>0.0185290033222846</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01087821758896276</v>
+        <v>0.01081559839992237</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03897388415525232</v>
+        <v>0.03818464791012841</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01465298767096388</v>
+        <v>0.01492679699753537</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0112016503666658</v>
+        <v>0.01074625688872921</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03422864410336915</v>
+        <v>0.03505498123013638</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02590756835795853</v>
+        <v>0.02434643650075811</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02168219466568738</v>
+        <v>0.02232086800570856</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04354552330069333</v>
+        <v>0.04312013521289219</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03835353554301654</v>
+        <v>0.03864781776821465</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02848004052096808</v>
+        <v>0.02916051904684172</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05687101502459162</v>
+        <v>0.05729092134397546</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02776691221757926</v>
+        <v>0.02843208415438551</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02190831770720622</v>
+        <v>0.02215306861371488</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04742764386398718</v>
+        <v>0.04876466914642895</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.01308391206578544</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.03060656697022618</v>
+        <v>0.03060656697022617</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01245554464038176</v>
+        <v>0.01164240597192939</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006844418230123927</v>
+        <v>0.006257170009432518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01674217055448744</v>
+        <v>0.01704780287767011</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01548349095735696</v>
+        <v>0.01533388619190588</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006076363674501937</v>
+        <v>0.006483121111929663</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02936737846962927</v>
+        <v>0.02970714026647294</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01554835503035959</v>
+        <v>0.01565596658807643</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.008339158130698531</v>
+        <v>0.007857331458155863</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0255713906105911</v>
+        <v>0.02494179124839499</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03132787869025223</v>
+        <v>0.03167618399883215</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02252901327512215</v>
+        <v>0.02209875682282488</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03163145709852259</v>
+        <v>0.03197629077390114</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0373513662067517</v>
+        <v>0.03782147592004522</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02484696777209131</v>
+        <v>0.02522534134912849</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04717081187210063</v>
+        <v>0.0474035782428374</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03100693324900877</v>
+        <v>0.03033561289771289</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01979755741615932</v>
+        <v>0.02067002442766526</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0374385068549536</v>
+        <v>0.03606205055798591</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01004775889012681</v>
+        <v>0.009869027725712657</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004822546779322914</v>
+        <v>0.003823973800818105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02749859001734227</v>
+        <v>0.02771358317194132</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009331146811158455</v>
+        <v>0.009234173315342906</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01656529188335927</v>
+        <v>0.01560092217503816</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03325903024073998</v>
+        <v>0.0330944474365169</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0117871788100782</v>
+        <v>0.01284473907007041</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01291945812788352</v>
+        <v>0.01253851642740384</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03320264790126507</v>
+        <v>0.03348427740629723</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04331573008700286</v>
+        <v>0.04053258770451186</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0252888208448215</v>
+        <v>0.02266837113384142</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05114341965381607</v>
+        <v>0.0511712659111857</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03853329777067484</v>
+        <v>0.04113366435394755</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05338167711778034</v>
+        <v>0.05007299326661382</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05648829592632796</v>
+        <v>0.05558961035987905</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03224854791264289</v>
+        <v>0.03227930695371997</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03116566291336376</v>
+        <v>0.03270840541890324</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04935722449762795</v>
+        <v>0.04904278229357414</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01515881482437799</v>
+        <v>0.01585186937570197</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007694438600680717</v>
+        <v>0.007588065907795039</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02678252325713566</v>
+        <v>0.02654763691996311</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02105542948505783</v>
+        <v>0.02144321957799652</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01742579660102435</v>
+        <v>0.01777411952255913</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03927236404224795</v>
+        <v>0.03908790192645052</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02002528554326456</v>
+        <v>0.01968244701227154</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01391631817766636</v>
+        <v>0.01366310176165814</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03444226730808135</v>
+        <v>0.03475458143829527</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02571929679127525</v>
+        <v>0.02584935843118494</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01443981994491038</v>
+        <v>0.01399410234909936</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03720063704473935</v>
+        <v>0.03655305659819572</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03224263066628896</v>
+        <v>0.03254866454487609</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02818855168332232</v>
+        <v>0.02809651855313625</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04981703501477083</v>
+        <v>0.05027017362680846</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0277177929369096</v>
+        <v>0.02733319432059846</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0199459711094636</v>
+        <v>0.01994781900645281</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0418232141158161</v>
+        <v>0.04162668514626147</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>17033</v>
+        <v>17220</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3506</v>
+        <v>3313</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10175</v>
+        <v>10224</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>23051</v>
+        <v>23349</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23625</v>
+        <v>24428</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>25461</v>
+        <v>25516</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>45833</v>
+        <v>46177</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>31321</v>
+        <v>31492</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>38714</v>
+        <v>39038</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39523</v>
+        <v>40349</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13974</v>
+        <v>14732</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24300</v>
+        <v>24480</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>46937</v>
+        <v>45580</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>48805</v>
+        <v>50338</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>42719</v>
+        <v>42922</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>78212</v>
+        <v>80418</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>58634</v>
+        <v>58702</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>59845</v>
+        <v>60859</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7199</v>
+        <v>7245</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6388</v>
+        <v>7327</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>23428</v>
+        <v>23560</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19714</v>
+        <v>20240</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>10949</v>
+        <v>10886</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>43489</v>
+        <v>42608</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>30323</v>
+        <v>30890</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>21455</v>
+        <v>20582</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>71028</v>
+        <v>72743</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25314</v>
+        <v>23788</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19705</v>
+        <v>20286</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>41772</v>
+        <v>41364</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>41895</v>
+        <v>42216</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>28664</v>
+        <v>29349</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>63459</v>
+        <v>63928</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>57461</v>
+        <v>58837</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>41961</v>
+        <v>42430</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>98418</v>
+        <v>101192</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11025</v>
+        <v>10305</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5638</v>
+        <v>5154</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17520</v>
+        <v>17840</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13560</v>
+        <v>13429</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4685</v>
+        <v>4999</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>30747</v>
+        <v>31103</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>27379</v>
+        <v>27569</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13299</v>
+        <v>12531</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>53533</v>
+        <v>52215</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27729</v>
+        <v>28037</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18558</v>
+        <v>18204</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33102</v>
+        <v>33463</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32712</v>
+        <v>33124</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>19158</v>
+        <v>19450</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>49387</v>
+        <v>49631</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>54600</v>
+        <v>53418</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>31574</v>
+        <v>32965</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>78376</v>
+        <v>75495</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5054</v>
+        <v>4964</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2444</v>
+        <v>1938</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>26811</v>
+        <v>27020</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4225</v>
+        <v>4181</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8112</v>
+        <v>7640</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>30185</v>
+        <v>30035</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>11266</v>
+        <v>12276</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>12873</v>
+        <v>12493</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>62506</v>
+        <v>63036</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21789</v>
+        <v>20389</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12814</v>
+        <v>11486</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>49864</v>
+        <v>49891</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17445</v>
+        <v>18623</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26141</v>
+        <v>24521</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>51267</v>
+        <v>50451</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>30822</v>
+        <v>30851</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>31053</v>
+        <v>32591</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>92917</v>
+        <v>92325</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>51679</v>
+        <v>54041</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>25909</v>
+        <v>25551</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>93130</v>
+        <v>92313</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>74526</v>
+        <v>75899</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>61457</v>
+        <v>62686</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>145025</v>
+        <v>144344</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>139149</v>
+        <v>136767</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>95940</v>
+        <v>94194</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>246953</v>
+        <v>249192</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>87681</v>
+        <v>88124</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>48623</v>
+        <v>47122</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>129356</v>
+        <v>127104</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>114123</v>
+        <v>115206</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>99415</v>
+        <v>99091</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>183964</v>
+        <v>185638</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>192601</v>
+        <v>189929</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>137509</v>
+        <v>137522</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>299875</v>
+        <v>298465</v>
       </c>
     </row>
     <row r="24">
